--- a/excel-template.xlsx
+++ b/excel-template.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#.#"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -250,9 +250,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" sqref="D2:D65537" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
       <formula1>DropDownMenu3!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" sqref="C3:C65537" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="提示" error="必须输入数字,且上下限为1.1~3222900.1">
+      <formula1>1.1</formula1>
+      <formula2>3222900.1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
